--- a/Curtain_Schedule.xlsx
+++ b/Curtain_Schedule.xlsx
@@ -3,21 +3,396 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2B4B23-9656-4F4D-B141-3E30B6F70EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C1F38F-47EC-4D7B-AC7F-1CAB596DC64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24015" yWindow="5595" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="315" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="126">
+  <si>
+    <t>Curtain Panel</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 65.005, Y = 149.980, Z = 20.000), EndPoint = Point(X = 65.010, Y = 150.115, Z = 20.000), Direction = Vector(X = 0.005, Y = 0.136, Z = 0.000, Length = 0.136)</t>
+  </si>
+  <si>
+    <t>A 0</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 65.010, Y = 150.115, Z = 20.000), EndPoint = Point(X = 49.985, Y = 150.309, Z = 20.000), Direction = Vector(X = -15.025, Y = 0.194, Z = 0.000, Length = 15.027)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 49.985, Y = 150.309, Z = 20.000), EndPoint = Point(X = 49.980, Y = 150.012, Z = 20.000), Direction = Vector(X = -0.005, Y = -0.297, Z = 0.000, Length = 0.297)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 49.980, Y = 150.012, Z = 20.000), EndPoint = Point(X = 65.005, Y = 149.980, Z = 20.000), Direction = Vector(X = 15.025, Y = -0.032, Z = 0.000, Length = 15.025)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 81.351, Y = 150.004, Z = 20.000), EndPoint = Point(X = 81.346, Y = 150.196, Z = 20.000), Direction = Vector(X = -0.005, Y = 0.192, Z = 0.000, Length = 0.192)</t>
+  </si>
+  <si>
+    <t>A 1</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 81.346, Y = 150.196, Z = 20.000), EndPoint = Point(X = 69.980, Y = 150.277, Z = 20.000), Direction = Vector(X = -11.367, Y = 0.080, Z = 0.000, Length = 11.367)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 69.980, Y = 150.277, Z = 20.000), EndPoint = Point(X = 69.985, Y = 149.980, Z = 20.000), Direction = Vector(X = 0.005, Y = -0.297, Z = 0.000, Length = 0.297)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 69.985, Y = 149.980, Z = 20.000), EndPoint = Point(X = 81.351, Y = 150.004, Z = 20.000), Direction = Vector(X = 11.367, Y = 0.024, Z = 0.000, Length = 11.367)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 89.985, Y = 149.980, Z = 20.000), EndPoint = Point(X = 103.458, Y = 150.008, Z = 20.000), Direction = Vector(X = 13.473, Y = 0.028, Z = 0.000, Length = 13.473)</t>
+  </si>
+  <si>
+    <t>A 2</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 103.458, Y = 150.008, Z = 20.000), EndPoint = Point(X = 103.454, Y = 150.463, Z = 20.000), Direction = Vector(X = -0.004, Y = 0.454, Z = 0.000, Length = 0.454)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 103.454, Y = 150.463, Z = 20.000), EndPoint = Point(X = 89.979, Y = 150.172, Z = 20.000), Direction = Vector(X = -13.474, Y = -0.291, Z = 0.000, Length = 13.478)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 89.979, Y = 150.172, Z = 20.000), EndPoint = Point(X = 89.985, Y = 149.980, Z = 20.000), Direction = Vector(X = 0.005, Y = -0.192, Z = 0.000, Length = 0.192)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 123.886, Y = 149.980, Z = 20.000), EndPoint = Point(X = 123.891, Y = 150.434, Z = 20.000), Direction = Vector(X = 0.005, Y = 0.454, Z = 0.000, Length = 0.454)</t>
+  </si>
+  <si>
+    <t>A 3</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 123.891, Y = 150.434, Z = 20.000), EndPoint = Point(X = 109.981, Y = 150.300, Z = 20.000), Direction = Vector(X = -13.910, Y = -0.134, Z = 0.000, Length = 13.911)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 109.981, Y = 150.300, Z = 20.000), EndPoint = Point(X = 109.980, Y = 150.010, Z = 20.000), Direction = Vector(X = -0.001, Y = -0.290, Z = 0.000, Length = 0.290)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 109.980, Y = 150.010, Z = 20.000), EndPoint = Point(X = 123.886, Y = 149.980, Z = 20.000), Direction = Vector(X = 13.906, Y = -0.030, Z = 0.000, Length = 13.906)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 130.444, Y = 149.980, Z = 20.000), EndPoint = Point(X = 130.444, Y = 150.739, Z = 20.000), Direction = Vector(X = 0.000, Y = 0.759, Z = 0.000, Length = 0.759)</t>
+  </si>
+  <si>
+    <t>A 4</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 130.444, Y = 150.739, Z = 20.000), EndPoint = Point(X = 129.982, Y = 150.712, Z = 20.000), Direction = Vector(X = -0.462, Y = -0.026, Z = 0.000, Length = 0.463)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 129.982, Y = 150.712, Z = 20.000), EndPoint = Point(X = 129.980, Y = 149.980, Z = 20.000), Direction = Vector(X = -0.002, Y = -0.732, Z = 0.000, Length = 0.732)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 129.980, Y = 149.980, Z = 20.000), EndPoint = Point(X = 130.444, Y = 149.980, Z = 20.000), Direction = Vector(X = 0.464, Y = 0.000, Z = 0.000, Length = 0.464)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 149.985, Y = 150.792, Z = 20.000), EndPoint = Point(X = 149.980, Y = 150.001, Z = 20.000), Direction = Vector(X = -0.006, Y = -0.790, Z = 0.000, Length = 0.790)</t>
+  </si>
+  <si>
+    <t>A 5</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 149.980, Y = 150.001, Z = 20.000), EndPoint = Point(X = 159.956, Y = 149.980, Z = 20.000), Direction = Vector(X = 9.977, Y = -0.021, Z = 0.000, Length = 9.977)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 159.956, Y = 149.980, Z = 20.000), EndPoint = Point(X = 159.962, Y = 150.669, Z = 20.000), Direction = Vector(X = 0.005, Y = 0.689, Z = 0.000, Length = 0.689)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 159.962, Y = 150.669, Z = 20.000), EndPoint = Point(X = 149.985, Y = 150.792, Z = 20.000), Direction = Vector(X = -9.976, Y = 0.123, Z = 0.000, Length = 9.977)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 169.981, Y = 150.720, Z = 20.000), EndPoint = Point(X = 169.980, Y = 149.987, Z = 20.000), Direction = Vector(X = -0.001, Y = -0.733, Z = 0.000, Length = 0.733)</t>
+  </si>
+  <si>
+    <t>A 6</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 169.980, Y = 149.987, Z = 20.000), EndPoint = Point(X = 173.417, Y = 149.980, Z = 20.000), Direction = Vector(X = 3.438, Y = -0.007, Z = 0.000, Length = 3.438)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 173.417, Y = 149.980, Z = 20.000), EndPoint = Point(X = 173.423, Y = 150.770, Z = 20.000), Direction = Vector(X = 0.005, Y = 0.791, Z = 0.000, Length = 0.791)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 173.423, Y = 150.770, Z = 20.000), EndPoint = Point(X = 169.981, Y = 150.720, Z = 20.000), Direction = Vector(X = -3.442, Y = -0.050, Z = 0.000, Length = 3.442)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 189.980, Y = 160.514, Z = 20.000), EndPoint = Point(X = 190.507, Y = 149.528, Z = 20.000), Direction = Vector(X = 0.528, Y = -10.986, Z = 0.000, Length = 10.999)</t>
+  </si>
+  <si>
+    <t>A 7</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 190.507, Y = 149.528, Z = 20.000), EndPoint = Point(X = 191.040, Y = 164.015, Z = 20.000), Direction = Vector(X = 0.533, Y = 14.487, Z = 0.000, Length = 14.497)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 191.040, Y = 164.015, Z = 20.000), EndPoint = Point(X = 189.980, Y = 160.514, Z = 20.000), Direction = Vector(X = -1.061, Y = -3.501, Z = 0.000, Length = 3.658)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 211.368, Y = 149.968, Z = 20.000), EndPoint = Point(X = 210.837, Y = 160.813, Z = 20.000), Direction = Vector(X = -0.531, Y = 10.844, Z = 0.000, Length = 10.857)</t>
+  </si>
+  <si>
+    <t>A 8</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 210.837, Y = 160.813, Z = 20.000), EndPoint = Point(X = 209.979, Y = 150.597, Z = 20.000), Direction = Vector(X = -0.858, Y = -10.216, Z = 0.000, Length = 10.252)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 209.979, Y = 150.597, Z = 20.000), EndPoint = Point(X = 211.368, Y = 149.968, Z = 20.000), Direction = Vector(X = 1.389, Y = -0.628, Z = 0.000, Length = 1.525)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 229.979, Y = 165.369, Z = 20.000), EndPoint = Point(X = 230.034, Y = 151.597, Z = 20.000), Direction = Vector(X = 0.056, Y = -13.772, Z = 0.000, Length = 13.772)</t>
+  </si>
+  <si>
+    <t>A 9</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 230.034, Y = 151.597, Z = 20.000), EndPoint = Point(X = 231.943, Y = 149.951, Z = 20.000), Direction = Vector(X = 1.909, Y = -1.646, Z = 0.000, Length = 2.521)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 231.943, Y = 149.951, Z = 20.000), EndPoint = Point(X = 229.979, Y = 165.369, Z = 20.000), Direction = Vector(X = -1.964, Y = 15.418, Z = 0.000, Length = 15.543)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 249.978, Y = 165.053, Z = 20.000), EndPoint = Point(X = 251.974, Y = 149.559, Z = 20.000), Direction = Vector(X = 1.995, Y = -15.494, Z = 0.000, Length = 15.622)</t>
+  </si>
+  <si>
+    <t>A 10</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 251.974, Y = 149.559, Z = 20.000), EndPoint = Point(X = 251.365, Y = 165.680, Z = 20.000), Direction = Vector(X = -0.608, Y = 16.121, Z = 0.000, Length = 16.133)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 251.365, Y = 165.680, Z = 20.000), EndPoint = Point(X = 249.978, Y = 165.053, Z = 20.000), Direction = Vector(X = -1.387, Y = -0.627, Z = 0.000, Length = 1.522)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 269.985, Y = 150.703, Z = 20.000), EndPoint = Point(X = 269.980, Y = 150.014, Z = 20.000), Direction = Vector(X = -0.005, Y = -0.689, Z = 0.000, Length = 0.689)</t>
+  </si>
+  <si>
+    <t>A 11</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 269.980, Y = 150.014, Z = 20.000), EndPoint = Point(X = 285.680, Y = 149.980, Z = 20.000), Direction = Vector(X = 15.700, Y = -0.034, Z = 0.000, Length = 15.700)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 285.680, Y = 149.980, Z = 20.000), EndPoint = Point(X = 285.686, Y = 150.788, Z = 20.000), Direction = Vector(X = 0.006, Y = 0.808, Z = 0.000, Length = 0.808)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 285.686, Y = 150.788, Z = 20.000), EndPoint = Point(X = 269.985, Y = 150.703, Z = 20.000), Direction = Vector(X = -15.701, Y = -0.085, Z = 0.000, Length = 15.701)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 291.852, Y = 149.789, Z = 20.000), EndPoint = Point(X = 291.883, Y = 161.371, Z = 20.000), Direction = Vector(X = 0.031, Y = 11.582, Z = 0.000, Length = 11.582)</t>
+  </si>
+  <si>
+    <t>A 12</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 291.883, Y = 161.371, Z = 20.000), EndPoint = Point(X = 289.978, Y = 159.729, Z = 20.000), Direction = Vector(X = -1.905, Y = -1.642, Z = 0.000, Length = 2.515)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 289.978, Y = 159.729, Z = 20.000), EndPoint = Point(X = 291.852, Y = 149.789, Z = 20.000), Direction = Vector(X = 1.873, Y = -9.940, Z = 0.000, Length = 10.115)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 311.861, Y = 149.980, Z = 20.000), EndPoint = Point(X = 309.994, Y = 159.937, Z = 20.000), Direction = Vector(X = -1.867, Y = 9.957, Z = 0.000, Length = 10.130)</t>
+  </si>
+  <si>
+    <t>A 13</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 309.994, Y = 159.937, Z = 20.000), EndPoint = Point(X = 309.980, Y = 149.981, Z = 20.000), Direction = Vector(X = -0.014, Y = -9.956, Z = 0.000, Length = 9.956)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 309.980, Y = 149.981, Z = 20.000), EndPoint = Point(X = 311.861, Y = 149.980, Z = 20.000), Direction = Vector(X = 1.881, Y = -0.001, Z = 0.000, Length = 1.881)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 329.980, Y = 150.615, Z = 20.000), EndPoint = Point(X = 329.985, Y = 149.980, Z = 20.000), Direction = Vector(X = 0.005, Y = -0.635, Z = 0.000, Length = 0.635)</t>
+  </si>
+  <si>
+    <t>A 14</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 329.985, Y = 149.980, Z = 20.000), EndPoint = Point(X = 339.746, Y = 150.001, Z = 20.000), Direction = Vector(X = 9.761, Y = 0.021, Z = 0.000, Length = 9.761)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 339.746, Y = 150.001, Z = 20.000), EndPoint = Point(X = 339.740, Y = 150.809, Z = 20.000), Direction = Vector(X = -0.006, Y = 0.808, Z = 0.000, Length = 0.808)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 339.740, Y = 150.809, Z = 20.000), EndPoint = Point(X = 329.980, Y = 150.615, Z = 20.000), Direction = Vector(X = -9.761, Y = -0.195, Z = 0.000, Length = 9.763)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 349.979, Y = 153.717, Z = 20.000), EndPoint = Point(X = 351.654, Y = 149.901, Z = 20.000), Direction = Vector(X = 1.675, Y = -3.816, Z = 0.000, Length = 4.167)</t>
+  </si>
+  <si>
+    <t>A 15</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 351.654, Y = 149.901, Z = 20.000), EndPoint = Point(X = 351.409, Y = 165.272, Z = 20.000), Direction = Vector(X = -0.246, Y = 15.371, Z = 0.000, Length = 15.373)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 351.409, Y = 165.272, Z = 20.000), EndPoint = Point(X = 349.979, Y = 153.717, Z = 20.000), Direction = Vector(X = -1.429, Y = -11.555, Z = 0.000, Length = 11.643)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 369.979, Y = 161.284, Z = 20.000), EndPoint = Point(X = 370.427, Y = 149.754, Z = 20.000), Direction = Vector(X = 0.448, Y = -11.531, Z = 0.000, Length = 11.539)</t>
+  </si>
+  <si>
+    <t>A 16</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 370.427, Y = 149.754, Z = 20.000), EndPoint = Point(X = 371.859, Y = 161.284, Z = 20.000), Direction = Vector(X = 1.432, Y = 11.530, Z = 0.000, Length = 11.619)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 371.859, Y = 161.284, Z = 20.000), EndPoint = Point(X = 369.979, Y = 161.284, Z = 20.000), Direction = Vector(X = -1.880, Y = 0.001, Z = 0.000, Length = 1.880)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 401.292, Y = 149.980, Z = 20.000), EndPoint = Point(X = 401.297, Y = 150.720, Z = 20.000), Direction = Vector(X = 0.005, Y = 0.740, Z = 0.000, Length = 0.740)</t>
+  </si>
+  <si>
+    <t>A 17</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 401.297, Y = 150.720, Z = 20.000), EndPoint = Point(X = 389.985, Y = 150.639, Z = 20.000), Direction = Vector(X = -11.312, Y = -0.081, Z = 0.000, Length = 11.313)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 389.985, Y = 150.639, Z = 20.000), EndPoint = Point(X = 389.980, Y = 150.004, Z = 20.000), Direction = Vector(X = -0.005, Y = -0.635, Z = 0.000, Length = 0.635)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 389.980, Y = 150.004, Z = 20.000), EndPoint = Point(X = 401.292, Y = 149.980, Z = 20.000), Direction = Vector(X = 11.312, Y = -0.024, Z = 0.000, Length = 11.312)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 411.653, Y = 156.685, Z = 20.000), EndPoint = Point(X = 409.969, Y = 160.523, Z = 20.000), Direction = Vector(X = -1.684, Y = 3.837, Z = 0.000, Length = 4.191)</t>
+  </si>
+  <si>
+    <t>A 18</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 409.969, Y = 160.523, Z = 20.000), EndPoint = Point(X = 410.951, Y = 149.792, Z = 20.000), Direction = Vector(X = 0.982, Y = -10.730, Z = 0.000, Length = 10.775)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 410.951, Y = 149.792, Z = 20.000), EndPoint = Point(X = 411.653, Y = 156.685, Z = 20.000), Direction = Vector(X = 0.703, Y = 6.893, Z = 0.000, Length = 6.929)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 429.985, Y = 149.980, Z = 20.000), EndPoint = Point(X = 440.469, Y = 150.002, Z = 20.000), Direction = Vector(X = 10.484, Y = 0.022, Z = 0.000, Length = 10.484)</t>
+  </si>
+  <si>
+    <t>A 19</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 440.469, Y = 150.002, Z = 20.000), EndPoint = Point(X = 440.464, Y = 150.742, Z = 20.000), Direction = Vector(X = -0.005, Y = 0.740, Z = 0.000, Length = 0.740)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 440.464, Y = 150.742, Z = 20.000), EndPoint = Point(X = 429.980, Y = 150.568, Z = 20.000), Direction = Vector(X = -10.484, Y = -0.174, Z = 0.000, Length = 10.485)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 429.980, Y = 150.568, Z = 20.000), EndPoint = Point(X = 429.985, Y = 149.980, Z = 20.000), Direction = Vector(X = 0.005, Y = -0.588, Z = 0.000, Length = 0.588)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 453.519, Y = 149.980, Z = 20.000), EndPoint = Point(X = 453.519, Y = 150.577, Z = 20.000), Direction = Vector(X = 0.001, Y = 0.597, Z = 0.000, Length = 0.597)</t>
+  </si>
+  <si>
+    <t>A 20</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 453.519, Y = 150.577, Z = 20.000), EndPoint = Point(X = 449.985, Y = 150.576, Z = 20.000), Direction = Vector(X = -3.534, Y = -0.001, Z = 0.000, Length = 3.534)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 449.985, Y = 150.576, Z = 20.000), EndPoint = Point(X = 449.980, Y = 149.987, Z = 20.000), Direction = Vector(X = -0.005, Y = -0.588, Z = 0.000, Length = 0.588)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 449.980, Y = 149.987, Z = 20.000), EndPoint = Point(X = 453.519, Y = 149.980, Z = 20.000), Direction = Vector(X = 3.539, Y = -0.007, Z = 0.000, Length = 3.539)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 470.514, Y = 160.375, Z = 20.000), EndPoint = Point(X = 469.979, Y = 149.980, Z = 20.000), Direction = Vector(X = -0.535, Y = -10.395, Z = 0.000, Length = 10.409)</t>
+  </si>
+  <si>
+    <t>A 21</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 469.979, Y = 149.980, Z = 20.000), EndPoint = Point(X = 470.570, Y = 149.980, Z = 20.000), Direction = Vector(X = 0.591, Y = 0.000, Z = 0.000, Length = 0.591)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 470.570, Y = 149.980, Z = 20.000), EndPoint = Point(X = 471.226, Y = 153.432, Z = 20.000), Direction = Vector(X = 0.656, Y = 3.452, Z = 0.000, Length = 3.514)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 471.226, Y = 153.432, Z = 20.000), EndPoint = Point(X = 470.514, Y = 160.375, Z = 20.000), Direction = Vector(X = -0.712, Y = 6.943, Z = 0.000, Length = 6.979)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 490.440, Y = 153.371, Z = 20.000), EndPoint = Point(X = 489.973, Y = 153.371, Z = 20.000), Direction = Vector(X = -0.467, Y = -0.000, Z = 0.000, Length = 0.467)</t>
+  </si>
+  <si>
+    <t>A 22</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 489.973, Y = 153.371, Z = 20.000), EndPoint = Point(X = 491.089, Y = 149.674, Z = 20.000), Direction = Vector(X = 1.116, Y = -3.697, Z = 0.000, Length = 3.862)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 491.089, Y = 149.674, Z = 20.000), EndPoint = Point(X = 490.440, Y = 153.371, Z = 20.000), Direction = Vector(X = -0.650, Y = 3.697, Z = 0.000, Length = 3.754)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 512.602, Y = 149.980, Z = 20.000), EndPoint = Point(X = 512.080, Y = 160.121, Z = 20.000), Direction = Vector(X = -0.522, Y = 10.141, Z = 0.000, Length = 10.154)</t>
+  </si>
+  <si>
+    <t>A 23</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 512.080, Y = 160.121, Z = 20.000), EndPoint = Point(X = 511.852, Y = 175.104, Z = 20.000), Direction = Vector(X = -0.228, Y = 14.983, Z = 0.000, Length = 14.985)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 511.852, Y = 175.104, Z = 20.000), EndPoint = Point(X = 511.877, Y = 186.430, Z = 20.000), Direction = Vector(X = 0.025, Y = 11.326, Z = 0.000, Length = 11.326)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 511.877, Y = 186.430, Z = 20.000), EndPoint = Point(X = 511.960, Y = 199.864, Z = 20.000), Direction = Vector(X = 0.083, Y = 13.434, Z = 0.000, Length = 13.434)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 511.960, Y = 199.864, Z = 20.000), EndPoint = Point(X = 512.472, Y = 213.742, Z = 20.000), Direction = Vector(X = 0.512, Y = 13.877, Z = 0.000, Length = 13.887)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 512.472, Y = 213.742, Z = 20.000), EndPoint = Point(X = 512.010, Y = 213.742, Z = 20.000), Direction = Vector(X = -0.462, Y = 0.000, Z = 0.000, Length = 0.462)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 512.010, Y = 213.742, Z = 20.000), EndPoint = Point(X = 511.416, Y = 210.378, Z = 20.000), Direction = Vector(X = -0.594, Y = -3.363, Z = 0.000, Length = 3.415)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 511.416, Y = 210.378, Z = 20.000), EndPoint = Point(X = 510.593, Y = 200.474, Z = 20.000), Direction = Vector(X = -0.823, Y = -9.904, Z = 0.000, Length = 9.938)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 510.593, Y = 200.474, Z = 20.000), EndPoint = Point(X = 509.980, Y = 184.825, Z = 20.000), Direction = Vector(X = -0.613, Y = -15.649, Z = 0.000, Length = 15.661)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 509.980, Y = 184.825, Z = 20.000), EndPoint = Point(X = 509.980, Y = 175.103, Z = 20.000), Direction = Vector(X = -0.000, Y = -9.722, Z = 0.000, Length = 9.722)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 509.980, Y = 175.103, Z = 20.000), EndPoint = Point(X = 510.413, Y = 163.839, Z = 20.000), Direction = Vector(X = 0.433, Y = -11.265, Z = 0.000, Length = 11.273)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 510.413, Y = 163.839, Z = 20.000), EndPoint = Point(X = 511.356, Y = 153.435, Z = 20.000), Direction = Vector(X = 0.943, Y = -10.403, Z = 0.000, Length = 10.446)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 511.356, Y = 153.435, Z = 20.000), EndPoint = Point(X = 512.015, Y = 149.982, Z = 20.000), Direction = Vector(X = 0.659, Y = -3.454, Z = 0.000, Length = 3.516)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 512.015, Y = 149.982, Z = 20.000), EndPoint = Point(X = 512.602, Y = 149.980, Z = 20.000), Direction = Vector(X = 0.587, Y = -0.002, Z = 0.000, Length = 0.587)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 540.153, Y = 150.002, Z = 20.000), EndPoint = Point(X = 540.147, Y = 150.137, Z = 20.000), Direction = Vector(X = -0.005, Y = 0.136, Z = 0.000, Length = 0.136)</t>
+  </si>
+  <si>
+    <t>A 24</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 540.147, Y = 150.137, Z = 20.000), EndPoint = Point(X = 529.980, Y = 150.144, Z = 20.000), Direction = Vector(X = -10.167, Y = 0.006, Z = 0.000, Length = 10.167)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 529.980, Y = 150.144, Z = 20.000), EndPoint = Point(X = 529.980, Y = 149.980, Z = 20.000), Direction = Vector(X = 0.000, Y = -0.164, Z = 0.000, Length = 0.164)</t>
+  </si>
+  <si>
+    <t>tartPoint = Point(X = 529.980, Y = 149.980, Z = 20.000), EndPoint = Point(X = 540.153, Y = 150.002, Z = 20.000), Direction = Vector(X = 10.173, Y = 0.022, Z = 0.000, Length = 10.173)</t>
   </si>
 </sst>
 </file>
@@ -53,9 +428,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,16 +733,1861 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02206C46-C768-43FD-B262-538E74EB4BCA}">
-  <dimension ref="A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2661ABEC-DC5A-435E-A638-F01FA180EB9D}">
+  <dimension ref="A2:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0.135651610016744</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>15.026703480569701</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.296937776881258</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>15.0248876478915</v>
+      </c>
+      <c r="D5">
+        <v>30.484180515359199</v>
+      </c>
+      <c r="E5">
+        <v>2.6412281881155701</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.19216336843413301</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>11.366994819970699</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.29691281860857199</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>11.36689711583</v>
+      </c>
+      <c r="D9">
+        <v>23.222968122843401</v>
+      </c>
+      <c r="E9">
+        <v>2.3160111618139601</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>13.473415057067699</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.45449137858196698</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>13.4776163109065</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.19168547950042999</v>
+      </c>
+      <c r="D13">
+        <v>27.597208226056601</v>
+      </c>
+      <c r="E13">
+        <v>3.8030824784770001</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.45424978178979403</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>13.911003822369199</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.28996617765033</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>13.906069858428699</v>
+      </c>
+      <c r="D17">
+        <v>28.561289640238101</v>
+      </c>
+      <c r="E17">
+        <v>4.6053894079460704</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.75850873007664099</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0.46310141528493498</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.73209950619635</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0.46405551964599501</v>
+      </c>
+      <c r="D21">
+        <v>2.4177651712039201</v>
+      </c>
+      <c r="E21">
+        <v>0.29846037160888</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0.79041426886373001</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>9.9765480943968203</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.68925805204311896</v>
+      </c>
+      <c r="F24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>9.9770890346088308</v>
+      </c>
+      <c r="D25">
+        <v>21.4333094499125</v>
+      </c>
+      <c r="E25">
+        <v>6.9540495019174804</v>
+      </c>
+      <c r="F25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0.73282361864074397</v>
+      </c>
+      <c r="F26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>3.4375155097079801</v>
+      </c>
+      <c r="F27" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0.79055036708603998</v>
+      </c>
+      <c r="F28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>3.4423413518596599</v>
+      </c>
+      <c r="D29">
+        <v>8.4032308472944308</v>
+      </c>
+      <c r="E29">
+        <v>2.45343656105796</v>
+      </c>
+      <c r="F29" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>10.998943278161301</v>
+      </c>
+      <c r="F30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>14.4970605506082</v>
+      </c>
+      <c r="F31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>3.65807890060236</v>
+      </c>
+      <c r="D32">
+        <v>29.1540827293719</v>
+      </c>
+      <c r="E32">
+        <v>6.1785895029900697</v>
+      </c>
+      <c r="F32" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>10.857486862407001</v>
+      </c>
+      <c r="F33" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>10.2521365769332</v>
+      </c>
+      <c r="F34" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>1.5245874857020101</v>
+      </c>
+      <c r="D35">
+        <v>22.6342109250423</v>
+      </c>
+      <c r="E35">
+        <v>6.9194306217248096</v>
+      </c>
+      <c r="F35" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>13.7719973487734</v>
+      </c>
+      <c r="F36" t="s">
+        <v>44</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>2.52054917207467</v>
+      </c>
+      <c r="F37" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>15.5426326792956</v>
+      </c>
+      <c r="D38">
+        <v>31.835179200143799</v>
+      </c>
+      <c r="E38">
+        <v>12.4691058879799</v>
+      </c>
+      <c r="F38" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>15.622046819188199</v>
+      </c>
+      <c r="F39" t="s">
+        <v>48</v>
+      </c>
+      <c r="G39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>16.132965359214801</v>
+      </c>
+      <c r="F40" t="s">
+        <v>50</v>
+      </c>
+      <c r="G40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>1.5222845713936699</v>
+      </c>
+      <c r="D41">
+        <v>33.277296749796697</v>
+      </c>
+      <c r="E41">
+        <v>10.7151560285256</v>
+      </c>
+      <c r="F41" t="s">
+        <v>51</v>
+      </c>
+      <c r="G41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0.68931087410921899</v>
+      </c>
+      <c r="F42" t="s">
+        <v>52</v>
+      </c>
+      <c r="G42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>15.7004003768785</v>
+      </c>
+      <c r="F43" t="s">
+        <v>54</v>
+      </c>
+      <c r="G43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0.80823979221499098</v>
+      </c>
+      <c r="F44" t="s">
+        <v>55</v>
+      </c>
+      <c r="G44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>11</v>
+      </c>
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>15.7008175034841</v>
+      </c>
+      <c r="D45">
+        <v>32.898768546686902</v>
+      </c>
+      <c r="E45">
+        <v>11.0992955643055</v>
+      </c>
+      <c r="F45" t="s">
+        <v>56</v>
+      </c>
+      <c r="G45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>11.582009402575601</v>
+      </c>
+      <c r="F46" t="s">
+        <v>57</v>
+      </c>
+      <c r="G46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>2.5146148378516102</v>
+      </c>
+      <c r="F47" t="s">
+        <v>59</v>
+      </c>
+      <c r="G47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>10.1151051496663</v>
+      </c>
+      <c r="D48">
+        <v>24.211729390093499</v>
+      </c>
+      <c r="E48">
+        <v>10.525092631828</v>
+      </c>
+      <c r="F48" t="s">
+        <v>60</v>
+      </c>
+      <c r="G48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>13</v>
+      </c>
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>10.130211446364999</v>
+      </c>
+      <c r="F49" t="s">
+        <v>61</v>
+      </c>
+      <c r="G49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>13</v>
+      </c>
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>9.9561272196377804</v>
+      </c>
+      <c r="F50" t="s">
+        <v>63</v>
+      </c>
+      <c r="G50" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>13</v>
+      </c>
+      <c r="B51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>1.8809089056275099</v>
+      </c>
+      <c r="D51">
+        <v>21.967247571630299</v>
+      </c>
+      <c r="E51">
+        <v>8.9290873363085499</v>
+      </c>
+      <c r="F51" t="s">
+        <v>64</v>
+      </c>
+      <c r="G51" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>14</v>
+      </c>
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0.63461568467043705</v>
+      </c>
+      <c r="F52" t="s">
+        <v>65</v>
+      </c>
+      <c r="G52" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>14</v>
+      </c>
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>9.7609772829008303</v>
+      </c>
+      <c r="F53" t="s">
+        <v>67</v>
+      </c>
+      <c r="G53" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>14</v>
+      </c>
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0.80844460770285997</v>
+      </c>
+      <c r="F54" t="s">
+        <v>68</v>
+      </c>
+      <c r="G54" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>9.7625767520320803</v>
+      </c>
+      <c r="D55">
+        <v>20.9666143273062</v>
+      </c>
+      <c r="E55">
+        <v>6.62535987478892</v>
+      </c>
+      <c r="F55" t="s">
+        <v>69</v>
+      </c>
+      <c r="G55" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>15</v>
+      </c>
+      <c r="B56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>4.1673106096365098</v>
+      </c>
+      <c r="F56" t="s">
+        <v>70</v>
+      </c>
+      <c r="G56" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>15</v>
+      </c>
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>15.3726947756759</v>
+      </c>
+      <c r="F57" t="s">
+        <v>72</v>
+      </c>
+      <c r="G57" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>15</v>
+      </c>
+      <c r="B58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>11.6428668250875</v>
+      </c>
+      <c r="D58">
+        <v>31.182872210399999</v>
+      </c>
+      <c r="E58">
+        <v>11.787556355866</v>
+      </c>
+      <c r="F58" t="s">
+        <v>73</v>
+      </c>
+      <c r="G58" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>16</v>
+      </c>
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>11.5392111702491</v>
+      </c>
+      <c r="F59" t="s">
+        <v>74</v>
+      </c>
+      <c r="G59" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>16</v>
+      </c>
+      <c r="B60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>11.6185253550626</v>
+      </c>
+      <c r="F60" t="s">
+        <v>76</v>
+      </c>
+      <c r="G60" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>16</v>
+      </c>
+      <c r="B61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>1.8802103518413</v>
+      </c>
+      <c r="D61">
+        <v>25.037946877153001</v>
+      </c>
+      <c r="E61">
+        <v>10.3447832755408</v>
+      </c>
+      <c r="F61" t="s">
+        <v>77</v>
+      </c>
+      <c r="G61" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>17</v>
+      </c>
+      <c r="B62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0.73969860022714495</v>
+      </c>
+      <c r="F62" t="s">
+        <v>78</v>
+      </c>
+      <c r="G62" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>17</v>
+      </c>
+      <c r="B63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>11.3126616287527</v>
+      </c>
+      <c r="F63" t="s">
+        <v>80</v>
+      </c>
+      <c r="G63" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>17</v>
+      </c>
+      <c r="B64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0.63478734581530605</v>
+      </c>
+      <c r="F64" t="s">
+        <v>81</v>
+      </c>
+      <c r="G64" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>17</v>
+      </c>
+      <c r="B65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>11.312209891067299</v>
+      </c>
+      <c r="D65">
+        <v>23.999357465862499</v>
+      </c>
+      <c r="E65">
+        <v>7.2955076056338903</v>
+      </c>
+      <c r="F65" t="s">
+        <v>82</v>
+      </c>
+      <c r="G65" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>18</v>
+      </c>
+      <c r="B66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>4.1908141868157598</v>
+      </c>
+      <c r="F66" t="s">
+        <v>83</v>
+      </c>
+      <c r="G66" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>18</v>
+      </c>
+      <c r="B67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>10.7752410810321</v>
+      </c>
+      <c r="F67" t="s">
+        <v>85</v>
+      </c>
+      <c r="G67" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>18</v>
+      </c>
+      <c r="B68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>6.9287149269155401</v>
+      </c>
+      <c r="D68">
+        <v>21.894770194763399</v>
+      </c>
+      <c r="E68">
+        <v>6.7220909184611797</v>
+      </c>
+      <c r="F68" t="s">
+        <v>86</v>
+      </c>
+      <c r="G68" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>19</v>
+      </c>
+      <c r="B69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>10.4843118027483</v>
+      </c>
+      <c r="F69" t="s">
+        <v>87</v>
+      </c>
+      <c r="G69" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>19</v>
+      </c>
+      <c r="B70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0.73980113207335896</v>
+      </c>
+      <c r="F70" t="s">
+        <v>89</v>
+      </c>
+      <c r="G70" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>19</v>
+      </c>
+      <c r="B71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>10.4854628201665</v>
+      </c>
+      <c r="F71" t="s">
+        <v>90</v>
+      </c>
+      <c r="G71" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>19</v>
+      </c>
+      <c r="B72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0.58814677258339898</v>
+      </c>
+      <c r="D72">
+        <v>22.2977225275717</v>
+      </c>
+      <c r="E72">
+        <v>6.5171473088053</v>
+      </c>
+      <c r="F72" t="s">
+        <v>91</v>
+      </c>
+      <c r="G72" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>20</v>
+      </c>
+      <c r="B73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0.59688799859355302</v>
+      </c>
+      <c r="F73" t="s">
+        <v>92</v>
+      </c>
+      <c r="G73" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>20</v>
+      </c>
+      <c r="B74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>3.5344009495406299</v>
+      </c>
+      <c r="F74" t="s">
+        <v>94</v>
+      </c>
+      <c r="G74" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>20</v>
+      </c>
+      <c r="B75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0.588386393392624</v>
+      </c>
+      <c r="F75" t="s">
+        <v>95</v>
+      </c>
+      <c r="G75" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>20</v>
+      </c>
+      <c r="B76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>3.5389600086273498</v>
+      </c>
+      <c r="D76">
+        <v>8.2586353501541705</v>
+      </c>
+      <c r="E76">
+        <v>1.93236272863527</v>
+      </c>
+      <c r="F76" t="s">
+        <v>96</v>
+      </c>
+      <c r="G76" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>21</v>
+      </c>
+      <c r="B77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>10.4091802573646</v>
+      </c>
+      <c r="F77" t="s">
+        <v>97</v>
+      </c>
+      <c r="G77" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>21</v>
+      </c>
+      <c r="B78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0.59129270820556301</v>
+      </c>
+      <c r="F78" t="s">
+        <v>99</v>
+      </c>
+      <c r="G78" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>21</v>
+      </c>
+      <c r="B79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>3.51400461348172</v>
+      </c>
+      <c r="F79" t="s">
+        <v>100</v>
+      </c>
+      <c r="G79" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>21</v>
+      </c>
+      <c r="B80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>6.9794577684811703</v>
+      </c>
+      <c r="D80">
+        <v>21.4939353475331</v>
+      </c>
+      <c r="E80">
+        <v>6.1542474684896398</v>
+      </c>
+      <c r="F80" t="s">
+        <v>101</v>
+      </c>
+      <c r="G80" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>22</v>
+      </c>
+      <c r="B81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0.46680278702793998</v>
+      </c>
+      <c r="F81" t="s">
+        <v>102</v>
+      </c>
+      <c r="G81" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>22</v>
+      </c>
+      <c r="B82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>3.8617679999335799</v>
+      </c>
+      <c r="F82" t="s">
+        <v>104</v>
+      </c>
+      <c r="G82" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>22</v>
+      </c>
+      <c r="B83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>3.7535741279547001</v>
+      </c>
+      <c r="D83">
+        <v>8.0821449149162206</v>
+      </c>
+      <c r="E83">
+        <v>0.708816636783417</v>
+      </c>
+      <c r="F83" t="s">
+        <v>105</v>
+      </c>
+      <c r="G83" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>23</v>
+      </c>
+      <c r="B84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>10.154113364668399</v>
+      </c>
+      <c r="F84" t="s">
+        <v>106</v>
+      </c>
+      <c r="G84" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>23</v>
+      </c>
+      <c r="B85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>14.984815042315001</v>
+      </c>
+      <c r="F85" t="s">
+        <v>108</v>
+      </c>
+      <c r="G85" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>23</v>
+      </c>
+      <c r="B86" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>11.326479430391201</v>
+      </c>
+      <c r="F86" t="s">
+        <v>109</v>
+      </c>
+      <c r="G86" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>23</v>
+      </c>
+      <c r="B87" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>13.434392099675501</v>
+      </c>
+      <c r="F87" t="s">
+        <v>110</v>
+      </c>
+      <c r="G87" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>23</v>
+      </c>
+      <c r="B88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>13.8866523854152</v>
+      </c>
+      <c r="F88" t="s">
+        <v>111</v>
+      </c>
+      <c r="G88" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>23</v>
+      </c>
+      <c r="B89" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0.46153713486853498</v>
+      </c>
+      <c r="F89" t="s">
+        <v>112</v>
+      </c>
+      <c r="G89" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>23</v>
+      </c>
+      <c r="B90" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>3.4153233828866099</v>
+      </c>
+      <c r="F90" t="s">
+        <v>113</v>
+      </c>
+      <c r="G90" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>23</v>
+      </c>
+      <c r="B91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>9.93791992632576</v>
+      </c>
+      <c r="F91" t="s">
+        <v>114</v>
+      </c>
+      <c r="G91" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>23</v>
+      </c>
+      <c r="B92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>15.6612115075619</v>
+      </c>
+      <c r="F92" t="s">
+        <v>115</v>
+      </c>
+      <c r="G92" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>23</v>
+      </c>
+      <c r="B93" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>9.7217806343679101</v>
+      </c>
+      <c r="F93" t="s">
+        <v>116</v>
+      </c>
+      <c r="G93" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>23</v>
+      </c>
+      <c r="B94" t="s">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>11.2730947648817</v>
+      </c>
+      <c r="F94" t="s">
+        <v>117</v>
+      </c>
+      <c r="G94" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>23</v>
+      </c>
+      <c r="B95" t="s">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>10.4458423222626</v>
+      </c>
+      <c r="F95" t="s">
+        <v>118</v>
+      </c>
+      <c r="G95" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>23</v>
+      </c>
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>3.5162852099558699</v>
+      </c>
+      <c r="F96" t="s">
+        <v>119</v>
+      </c>
+      <c r="G96" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>23</v>
+      </c>
+      <c r="B97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0.58700142920100995</v>
+      </c>
+      <c r="D97">
+        <v>128.80644863477701</v>
+      </c>
+      <c r="E97">
+        <v>91.022869800550694</v>
+      </c>
+      <c r="F97" t="s">
+        <v>120</v>
+      </c>
+      <c r="G97" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>24</v>
+      </c>
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0.13582013976459201</v>
+      </c>
+      <c r="F98" t="s">
+        <v>121</v>
+      </c>
+      <c r="G98" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>24</v>
+      </c>
+      <c r="B99" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>10.1674709262281</v>
+      </c>
+      <c r="F99" t="s">
+        <v>123</v>
+      </c>
+      <c r="G99" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>24</v>
+      </c>
+      <c r="B100" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0.16394676947904299</v>
+      </c>
+      <c r="F100" t="s">
+        <v>124</v>
+      </c>
+      <c r="G100" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>24</v>
+      </c>
+      <c r="B101" t="s">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>10.1726262883946</v>
+      </c>
+      <c r="D101">
+        <v>20.639864123866399</v>
+      </c>
+      <c r="E101">
+        <v>1.1125804718641299</v>
+      </c>
+      <c r="F101" t="s">
+        <v>125</v>
+      </c>
+      <c r="G101" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/Curtain_Schedule.xlsx
+++ b/Curtain_Schedule.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C1F38F-47EC-4D7B-AC7F-1CAB596DC64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFE792A-957D-4E82-836C-70FD30E599F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24015" yWindow="5595" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -733,7 +733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2661ABEC-DC5A-435E-A638-F01FA180EB9D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF026F5-4B94-4ED5-A8D7-4C3C6DE79E8F}">
   <dimension ref="A2:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
